--- a/db/mst_data/minagoraswitch_master_data.xlsx
+++ b/db/mst_data/minagoraswitch_master_data.xlsx
@@ -24,10 +24,13 @@
     <t>category</t>
   </si>
   <si>
-    <t>バネ(下)</t>
-  </si>
-  <si>
-    <t>大砲</t>
+    <t>ファン</t>
+  </si>
+  <si>
+    <t>風船</t>
+  </si>
+  <si>
+    <t>キノコ</t>
   </si>
   <si>
     <t>id</t>
@@ -100,8 +103,12 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
@@ -131,9 +138,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="6" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" r="1" ht="15.75">
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
@@ -144,28 +154,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" r="2" ht="15.75">
       <c s="1" r="A2">
         <v>1.0</v>
       </c>
-      <c t="s" s="1" r="B2">
+      <c t="s" s="2" r="B2">
         <v>3</v>
       </c>
       <c s="1" r="C2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="1" r="3" ht="15.75">
       <c s="1" r="A3">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="B3">
+      <c t="s" s="2" r="B3">
         <v>4</v>
       </c>
       <c s="1" r="C3">
         <v>2.0</v>
       </c>
     </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c s="3" r="A4">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="3" r="B4">
+        <v>5</v>
+      </c>
+      <c s="3" r="C4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row customHeight="1" r="5" ht="15.75"/>
+    <row customHeight="1" r="6" ht="15.75"/>
+    <row customHeight="1" r="7" ht="15.75"/>
+    <row customHeight="1" r="8" ht="15.75"/>
+    <row customHeight="1" r="9" ht="15.75"/>
+    <row customHeight="1" r="10" ht="15.75"/>
+    <row customHeight="1" r="11" ht="15.75"/>
+    <row customHeight="1" r="12" ht="15.75"/>
+    <row customHeight="1" r="13" ht="15.75"/>
+    <row customHeight="1" r="14" ht="15.75"/>
+    <row customHeight="1" r="15" ht="15.75"/>
+    <row customHeight="1" r="16" ht="15.75"/>
+    <row customHeight="1" r="17" ht="15.75"/>
+    <row customHeight="1" r="18" ht="15.75"/>
+    <row customHeight="1" r="19" ht="15.75"/>
+    <row customHeight="1" r="20" ht="15.75"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -176,28 +213,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="6" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" r="1" ht="15.75">
       <c t="s" s="1" r="A1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" r="2" ht="15.75">
       <c s="1" r="A2">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c s="1" r="C2">
         <v>1.0</v>
@@ -206,12 +246,12 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="1" r="3" ht="15.75">
       <c s="1" r="A3">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="C3">
         <v>2.0</v>
@@ -220,12 +260,12 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="1" r="4" ht="15.75">
       <c s="1" r="A4">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="C4">
         <v>3.0</v>
@@ -234,6 +274,22 @@
         <v>3.0</v>
       </c>
     </row>
+    <row customHeight="1" r="5" ht="15.75"/>
+    <row customHeight="1" r="6" ht="15.75"/>
+    <row customHeight="1" r="7" ht="15.75"/>
+    <row customHeight="1" r="8" ht="15.75"/>
+    <row customHeight="1" r="9" ht="15.75"/>
+    <row customHeight="1" r="10" ht="15.75"/>
+    <row customHeight="1" r="11" ht="15.75"/>
+    <row customHeight="1" r="12" ht="15.75"/>
+    <row customHeight="1" r="13" ht="15.75"/>
+    <row customHeight="1" r="14" ht="15.75"/>
+    <row customHeight="1" r="15" ht="15.75"/>
+    <row customHeight="1" r="16" ht="15.75"/>
+    <row customHeight="1" r="17" ht="15.75"/>
+    <row customHeight="1" r="18" ht="15.75"/>
+    <row customHeight="1" r="19" ht="15.75"/>
+    <row customHeight="1" r="20" ht="15.75"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -244,23 +300,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="6" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" r="1" ht="15.75">
       <c t="s" s="1" r="A1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" r="2" ht="15.75">
       <c s="1" r="A2">
         <v>1.0</v>
       </c>
@@ -274,7 +333,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="1" r="3" ht="15.75">
       <c s="1" r="A3">
         <v>2.0</v>
       </c>
@@ -288,6 +347,23 @@
         <v>2.0</v>
       </c>
     </row>
+    <row customHeight="1" r="4" ht="15.75"/>
+    <row customHeight="1" r="5" ht="15.75"/>
+    <row customHeight="1" r="6" ht="15.75"/>
+    <row customHeight="1" r="7" ht="15.75"/>
+    <row customHeight="1" r="8" ht="15.75"/>
+    <row customHeight="1" r="9" ht="15.75"/>
+    <row customHeight="1" r="10" ht="15.75"/>
+    <row customHeight="1" r="11" ht="15.75"/>
+    <row customHeight="1" r="12" ht="15.75"/>
+    <row customHeight="1" r="13" ht="15.75"/>
+    <row customHeight="1" r="14" ht="15.75"/>
+    <row customHeight="1" r="15" ht="15.75"/>
+    <row customHeight="1" r="16" ht="15.75"/>
+    <row customHeight="1" r="17" ht="15.75"/>
+    <row customHeight="1" r="18" ht="15.75"/>
+    <row customHeight="1" r="19" ht="15.75"/>
+    <row customHeight="1" r="20" ht="15.75"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
